--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.8766938385247199</v>
+        <v>-1.054401637039784</v>
       </c>
       <c r="D2">
-        <v>0.3807783691011655</v>
+        <v>0.3031419272028697</v>
       </c>
       <c r="E2">
         <v>0.9121282105315838</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4035450417329868</v>
+        <v>-0.5481820004710556</v>
       </c>
       <c r="D3">
-        <v>0.6865986926798806</v>
+        <v>0.5890867629772574</v>
       </c>
       <c r="E3">
         <v>0.9121282105315838</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.3622502129576952</v>
+        <v>-0.3229303236714468</v>
       </c>
       <c r="D4">
-        <v>0.7172106479715916</v>
+        <v>0.7497972314666175</v>
       </c>
       <c r="E4">
         <v>0.9121282105315838</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.056997849230234</v>
+        <v>-1.652965517199736</v>
       </c>
       <c r="D5">
-        <v>0.03984061190414412</v>
+        <v>0.1125389990266088</v>
       </c>
       <c r="E5">
         <v>0.9121282105315838</v>
@@ -531,7 +528,7 @@
         <v>1.018570995780472</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.3760373663781627</v>
+        <v>0.4925252054464042</v>
       </c>
       <c r="D6">
-        <v>0.7069366239371084</v>
+        <v>0.6272276353813044</v>
       </c>
       <c r="E6">
         <v>0.963540400236115</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4472908650377518</v>
+        <v>0.4499715141939513</v>
       </c>
       <c r="D7">
-        <v>0.6547227574259242</v>
+        <v>0.6571334895511902</v>
       </c>
       <c r="E7">
         <v>0.963540400236115</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.7535518096823903</v>
+        <v>-0.7319989567584946</v>
       </c>
       <c r="D8">
-        <v>0.4512240446059566</v>
+        <v>0.471895771698865</v>
       </c>
       <c r="E8">
         <v>0.963540400236115</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.05851356915311189</v>
+        <v>0.05939148799542811</v>
       </c>
       <c r="D9">
-        <v>0.9533465173617863</v>
+        <v>0.953176491385938</v>
       </c>
       <c r="E9">
         <v>0.93511740056852</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.289555910075127</v>
+        <v>-1.169870763767922</v>
       </c>
       <c r="D10">
-        <v>0.1973824988466444</v>
+        <v>0.2545712277780448</v>
       </c>
       <c r="E10">
         <v>0.93511740056852</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.242960802938154</v>
+        <v>-1.239461460582337</v>
       </c>
       <c r="D11">
-        <v>0.214055824082898</v>
+        <v>0.2282344319631306</v>
       </c>
       <c r="E11">
         <v>0.9309519614074686</v>
